--- a/medicine/Pharmacie/Delavirdine/Delavirdine.xlsx
+++ b/medicine/Pharmacie/Delavirdine/Delavirdine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La delavirdine (DLV) est un médicament antirétroviral. C'est un inhibiteur non nucléosidique de la transcriptase inverse (INNTI), utilisé pour le traitement de l'infection par le VIH. Cette substance active est commercialisée sous le nom de Rescriptor.
